--- a/data/survey_data/raw_data/sat_data3.xlsx
+++ b/data/survey_data/raw_data/sat_data3.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="192">
   <si>
     <t>Timestamp</t>
   </si>
@@ -278,6 +278,317 @@
   </si>
   <si>
     <t>Let us write down a blog post discussing your success story. Discuss your ideas, actions, commitments, what you learn from, and your general feeling about compassion energy. And share them to the forum so that others can learn about it!</t>
+  </si>
+  <si>
+    <t>We have agreed towards fulfilling last week's exercises, do you pursue them? How do you feel in terms of your own compassion trait?</t>
+  </si>
+  <si>
+    <t>You have made this far to AUC, welcome. Can you choose a news category from below before we proceed?</t>
+  </si>
+  <si>
+    <t>In what sense do you experience having read that story?</t>
+  </si>
+  <si>
+    <t>Is there a reason you don't feel a thing?</t>
+  </si>
+  <si>
+    <t>Perhaps your underlying compassion trait has not been fully stimulated. If you are willing to, let us practice some more SAT protocols to further discover this trait of yours.</t>
+  </si>
+  <si>
+    <t>If you already feel sympathy for the less fortunate group and want to help them at an instance, you are showing tender compassion towards those who suffered! Great start!</t>
+  </si>
+  <si>
+    <t>I will make a quick test for you. Which of these solutions would fall under the category of &lt;foresighted compassion&gt; for climate change?</t>
+  </si>
+  <si>
+    <t>Wonderful first step. However, the solution you think of can be optimized. The idea of you saving the electricity and reusing the plastic bag is purely voluntary. These actions might have very limited effect on a global scale. Though, you have shown &lt;tender compassion&gt;, in which you are trying and willing to help. On the flip side, there might be a more sustainable solution such as pressuring the government to promote green energy-related economic activities, and crafting policies towards carbon reduction! This is called &lt;foresighted compassion&gt; where deeper thoughts and consideration might be needed to solve a problem on a global scale.</t>
+  </si>
+  <si>
+    <t>Well done, you have achieved to being compassionate! Now you know the explicit discrepancy between &lt;tender compassion&gt; and &lt;foresighted compassion&gt;, give it a go on researching how you are going to tackle the problem with your &lt;foresighted compassion&gt;. See you in a week.</t>
+  </si>
+  <si>
+    <t>Have you investigate on the current solutions?</t>
+  </si>
+  <si>
+    <t>It's alright, no hard feelings. Promise me to set a new deadline and let's meet again next time.</t>
+  </si>
+  <si>
+    <t>Is there a better method to resolve this issue?</t>
+  </si>
+  <si>
+    <t>Coordinate a plan on how you are going to accomplish this. When thinking about that plan, you may ponder upon the long-term consequence that is always shifting (&lt;Foresighted compassion&gt; needs well-thought and viable solutions). Take your pen and draft that plan.</t>
+  </si>
+  <si>
+    <t>Have you pursue your idea to resolve the issue?</t>
+  </si>
+  <si>
+    <t>Go ahead and reflect what could possibly be wrong in the second stage.</t>
+  </si>
+  <si>
+    <t>Try to find a mate that can go through the solution with you together, and be responsible towards each other. Kick it off today.</t>
+  </si>
+  <si>
+    <t>IS there any special feeling you have developed towards your &lt;compassion energy&gt;? Note down those feelings.</t>
+  </si>
+  <si>
+    <t>Make a blog post recording your success story. In that post, don't forget to talk about your ideas, actions, commitments, your learnings, and the feeling about &lt;compassion energy&gt;. Go ahead and share them on the forum!</t>
+  </si>
+  <si>
+    <t>How do you feel after following through last week actions?</t>
+  </si>
+  <si>
+    <t>Welcome to AUC. Before we start, please choose a news category from the following</t>
+  </si>
+  <si>
+    <t>How are you feeling after reading the story</t>
+  </si>
+  <si>
+    <t>Do you mind telling me the reason you don't feel anything?</t>
+  </si>
+  <si>
+    <t>It is possible that the compassion trait is not yet fully developed. Don't worry. Let us move back to SAT protocols.</t>
+  </si>
+  <si>
+    <t>If you feel bad for the unfortunate, and feel that you want to help that person with a more short term solutions, this shows that you have shown tender compassion towards the victim! It is a good start that you want to help them!</t>
+  </si>
+  <si>
+    <t>Let us do a quick test. Which of the following solutions do you think is a form of foresighted compassion for climate change?</t>
+  </si>
+  <si>
+    <t>Great start! However, please note that the solution that you have selected is not scalable and sustainable. Reducing electricity usage, and reducing plastic bag usage on your own initiative is a purely voluntary action. The impact of these actions will be very limited given the scale of its nature. This is a form of &lt;tender compassion&gt;, where you try to help, but the impact of the action is limited. On the other hand, pressuring governments to encourage green energy-related investments, and crafting policies that enforce carbon-neutral might be more sustainable solutions! This form of compassion that requires deeper thinking to solve the problem from a more global, sustainable, and systematic basis is &lt;foresighted compassion&gt;.</t>
+  </si>
+  <si>
+    <t>Congratulations on being compassionate! Now that you are clear on the difference between tender compassion and foresighted compassion, try to think and research how you can solve the problem that you have in mind with foresighted compassion. Come back in a week.</t>
+  </si>
+  <si>
+    <t>Have you researched through existing solutions?</t>
+  </si>
+  <si>
+    <t>That's fine. Please set a new deadline to yourself, and come back.</t>
+  </si>
+  <si>
+    <t>Is there any reasonably good solution?</t>
+  </si>
+  <si>
+    <t>Think about how do you plan to achieve this goal and make a detailed plan. Note that it is better to consider the long-term impact that can potentially be changed (&lt;Foresighted compassion&gt; requires in-depth and sustainable solutions).</t>
+  </si>
+  <si>
+    <t>Have you followed through your solution?</t>
+  </si>
+  <si>
+    <t>Could you please try to reflect on what went wrong in the second stage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Please find a partner who can complete the solution together with you, and hold each other accountable. </t>
+  </si>
+  <si>
+    <t>What do you feel about your compassion energy? I very much look forward to your answer.</t>
+  </si>
+  <si>
+    <t>You can write a blog post sharing your success story, in which you can discuss your ideas, actions, commitments, lessons you learned, and the feeling about compassion energy. You can also hare them to the forum!</t>
+  </si>
+  <si>
+    <t>Are you following through on the actions you took last week? What are your feelings right now?</t>
+  </si>
+  <si>
+    <t>Thank you for visiting AUC. Choose one of the following news categories to start</t>
+  </si>
+  <si>
+    <t>After reading the story, how does it make you feel?</t>
+  </si>
+  <si>
+    <t>Can you tell me why you don't feel anything?</t>
+  </si>
+  <si>
+    <t>Perhaps compassion is not yet fully developed. It would be helpful if we practiced SAT a bit more. We should return to the SAT protocol.</t>
+  </si>
+  <si>
+    <t>Whenever you feel bad for someone, and want to help that person with a more short-term solution, you have shown tender compassion towards them! You are doing a great thing by wanting to help them!</t>
+  </si>
+  <si>
+    <t>We'll do a quick test. As a form of &lt;foresighted compassion&gt;, which of the following solutions would be most appropriate?</t>
+  </si>
+  <si>
+    <t>I think this is a great start. It is important to note, however, that the solution you have chosen is not sustainable or scalable. Using fewer plastic bags and reducing electricity usage is an entirely voluntary action. As these actions are small in scale, their impact will be limited. Basically, this is a form of &lt;tender compassion&gt;, where you try to help, but the impact is limited. However, encouraging green energy investments and enforcing carbon-neutral policies may be more sustainable! &lt;Foresighted compassion&gt; involves a more global, sustainable, and systematic approach to solving the problem.</t>
+  </si>
+  <si>
+    <t>Your compassion is greatly appreciated! Having clarified the difference between tender compassion and &lt;foresighted compassion&gt;, consider how you can use &lt;foresighted compassion&gt; to solve the problem you envision. I look forward to seeing you next week.</t>
+  </si>
+  <si>
+    <t>Is there a solution that you have researched?</t>
+  </si>
+  <si>
+    <t>There's nothing to worry about. Set a new deadline for yourself and get back to me.</t>
+  </si>
+  <si>
+    <t>Are there any reasonable solutions?</t>
+  </si>
+  <si>
+    <t>Plan how you will accomplish this. Consider the long-term impact that can be changed (&lt;Foresighted compassion&gt; requires deep and sustainable solutions). Could you make a detailed plan?</t>
+  </si>
+  <si>
+    <t>Is your solution being implemented?</t>
+  </si>
+  <si>
+    <t>Think back to the second stage and try to figure out what went wrong.</t>
+  </si>
+  <si>
+    <t>Find a partner who can complete the solution with you, and hold each other accountable. Make a start today.</t>
+  </si>
+  <si>
+    <t>How do you feel about your &lt;compassion energy&gt;? How do you feel about them? Write it down.</t>
+  </si>
+  <si>
+    <t>Share your success story in a blog post. Talk about your ideas, actions, commitments, what you learn from, and how you feel about &lt;compassion energy&gt;.  Join the forum and share them!</t>
+  </si>
+  <si>
+    <t>Do you build on your actions from the previous week? How does that make you feel?</t>
+  </si>
+  <si>
+    <t>Greetings and welcome to the AUC! Let's begin - please select a new category from the following options</t>
+  </si>
+  <si>
+    <t>Would you know why you do not feel particularly strongly about that?</t>
+  </si>
+  <si>
+    <t>Perhaps the compassion trait is not fully developed at the moment. That calls for more SAT practice. Let us return to SAT protocols</t>
+  </si>
+  <si>
+    <t>If you are empathetic towards the less fortunate and feel a need to help with a short-term solution - you have exhibited tender compassion towards the victim! That you wish to help them is a great start!</t>
+  </si>
+  <si>
+    <t>Let us do a short test. Which of the following solutions are a form of foresighted compassion when it comes to climate change?</t>
+  </si>
+  <si>
+    <t>This is a fantastic start. However, bear in mind that your solution of choice is unable to scaled up and unsustainable. The reduction of electricity and plastic bag usage is a purely voluntary action with limited impact. This is a form of tender compassion, where you show a willingness to help but the impact of your actions are limited. On the flipside, lobbying for governments to encourage green energy-related investments alongside designing policies that work towards carbon-neutrality may be more sustainable! This type of compassion, which requires deeper thinking to formulate a worldwide, sustainable, and systematic solution, is known as foresighted compassion.</t>
+  </si>
+  <si>
+    <t>Congratulations on exhibiting compassion! Now that the differences between tender compassion and foresighted compassion are clear, reflect and think of ways you can solve an issue that you have in mind with foresighted compassion. Return to this in a week's time.</t>
+  </si>
+  <si>
+    <t>Have you conducted research into existing solutions?</t>
+  </si>
+  <si>
+    <t>No problem. Do set a new deadline for yourself and return to this.</t>
+  </si>
+  <si>
+    <t>Does a reasonably good solution exist?</t>
+  </si>
+  <si>
+    <t>Reflect on how you might achieve this. While reflecting, do consider any long-term impacts that could be changed (Foresighted compassion requires deeper, sustainable solutions). Write down a detailed plan.</t>
+  </si>
+  <si>
+    <t>Have you followed through on your solution?</t>
+  </si>
+  <si>
+    <t>Reflect on the shortcomings in the second stage.</t>
+  </si>
+  <si>
+    <t>Do partner with somebody who can see through the entirety of the solution with you while keeping the both of you accountable. Begin today.</t>
+  </si>
+  <si>
+    <t>What are your feelings on compassion energy? Jot down those feelings.</t>
+  </si>
+  <si>
+    <t>Write a blog post detailing your story of success. Discuss your ideas, actions, commitments, lessons learned, and overall feeling about compassion energy. Share these thoughts to the forum!</t>
+  </si>
+  <si>
+    <t>Please write down anything you would like me to know here. Thank you for your time!</t>
+  </si>
+  <si>
+    <t>Do you practice what we did last week? How do you feel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to AUC. To begin, please choose a news category from the following
+</t>
+  </si>
+  <si>
+    <t>How do you feel about after reading the story?</t>
+  </si>
+  <si>
+    <t>Do you feel anything? Feeling nothing is also an answer. Why do you think you feel so?</t>
+  </si>
+  <si>
+    <t>Maybe you haven't developed the compassion trait yet. No worries about this. Let us practice SAT a little more. Let us move back to SAT protocols.</t>
+  </si>
+  <si>
+    <t>If you feel bad for the unfortunate, and feel that you have an immediate want to help that person , you have shown tender compassion towards the victim! It is a good start that you want to help them!</t>
+  </si>
+  <si>
+    <t>Good start!  However, note that the solution that you have selected is not scalable and effective long-term. Reducing electricity usage, and reducing plastic bag usage on your own initiative is a purely voluntary action. This is great, but the impact of these actions will be very limited given the scale of its nature. This is a form of &lt;tender compassion&gt;, where you try to help, but the impact of the action is limited. On the other hand, pressuring governments to encourage green energy-related investments, and crafting policies that enforce carbon-neutral might be more effective long-term! This form of compassion that requires deeper thinking to solve the problem from a more global, sustainable, and systematic basis is &lt;foresighted compassion&gt;.</t>
+  </si>
+  <si>
+    <t>Congratulations on being compassionate! Now that you are clear on the difference between &lt;tender compassion&gt; and &lt;foresighted compassion&gt;, please think and research how you can solve the problem that you care about with &lt;foresighted compassion&gt;. We can come back next week.</t>
+  </si>
+  <si>
+    <t>Have you research any solution?</t>
+  </si>
+  <si>
+    <t>Is there any good solution?</t>
+  </si>
+  <si>
+    <t>Think about how do you plan to achieve this goal. When thinking, please consider the long-term impact that can potentially be changed (&lt;Foresighted compassion&gt; requires in-depth and sustainable solutions). Please prepare a written version of the detailed plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Have you follow through your solution?
+</t>
+  </si>
+  <si>
+    <t>What went wrong in second stage?</t>
+  </si>
+  <si>
+    <t>You are encouraged to find a partner that can complete the solution together with you, and hold each other accountable. Please start doing so today.</t>
+  </si>
+  <si>
+    <t>What do you feel about your &lt;compassion energy&gt;? Put your feelings down in writing.</t>
+  </si>
+  <si>
+    <t>Did you go through with last week's actions? How do you feel?</t>
+  </si>
+  <si>
+    <t>Welcome to AUC. To begin, please choose a news category.</t>
+  </si>
+  <si>
+    <t>Maybe the compassion trait is not yet fully developed. Let's go back to SAT protocols for more practice.</t>
+  </si>
+  <si>
+    <t>If you feel bad for the unfortunate and want to help them with immediate solutions, you've shown tender compassion towards them. This is a good start!</t>
+  </si>
+  <si>
+    <t>Let's do a quick test. Which of he following would be a form of foresighted compassion for climate change?</t>
+  </si>
+  <si>
+    <t>This is a good start, but note that the solution you have opted for is not scalable and sustainable. Reducing electricity and plastic bag usage on your own initiative is a purely voluntary action. The impact of these actions is very limited given the scale of its nature. This is a form of tender compassion, where you attempt to help, but the impact of the action is limited. On the contrary, pressuring governments to encourage green investments and enforcing carbon-neutral policies might be more sustainable. This form of compassion that requires deeper thinking to arrive at more sustainable and systematic solutions is called foresighted compassion.</t>
+  </si>
+  <si>
+    <t>Congratulations on being compassionate! Now that you know the distinction between &lt;tender compassion&gt; and &lt;foresighted compassion&gt;, research on how you can solve the problem that you have in mind with &lt;foresighted compassion&gt;. Come back in a week.</t>
+  </si>
+  <si>
+    <t>Have you researched on existing solutions?</t>
+  </si>
+  <si>
+    <t>That's fine. Please set a new deadline for yourself and come back then.</t>
+  </si>
+  <si>
+    <t>Is there a good solution?</t>
+  </si>
+  <si>
+    <t>Think about how you plan to achieve this. When you do so, consider the long-term impact. (&lt;Foresighted compassion&gt; requires in-depth and sustainable solutions). Write down a detailed plan.</t>
+  </si>
+  <si>
+    <t>Have you followed through with your solution?</t>
+  </si>
+  <si>
+    <t>Reflect on what went wrong in the second stage.</t>
+  </si>
+  <si>
+    <t>Find a partner that can complete the solution together with you and hold each other accountable. Start today.</t>
+  </si>
+  <si>
+    <t>How do you feel about your &lt;compassion energy&gt;?</t>
+  </si>
+  <si>
+    <t>Write a blog post sharing your success story. Discuss your ideas, actions, commitments, learnings, and feeling about &lt;compassion energy). Share it on the forum!</t>
   </si>
 </sst>
 </file>
@@ -856,6 +1167,363 @@
         <v>88</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>44761.73855667824</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>44762.00883466435</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>44763.6683584375</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>44765.71227741898</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>44765.745793090275</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4">
+        <v>44765.76025905093</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
